--- a/Nov/TEACHING HRD-034 EMPLOYEE.xlsx
+++ b/Nov/TEACHING HRD-034 EMPLOYEE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{022D1A45-7826-4D2A-8DE8-CBDE737521BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B78FD136-6777-44B5-95C5-8CFFD55D5024}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{022D1A45-7826-4D2A-8DE8-CBDE737521BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{17701FC6-B66C-49C0-B99E-76B75C92F442}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,14 +1068,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1083,8 +1080,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3156,8 +3156,8 @@
   </sheetPr>
   <dimension ref="A1:V272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3185,110 +3185,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
     </row>
     <row r="2" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="62"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
       <c r="H4" s="62"/>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="72" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72" t="s">
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
     </row>
     <row r="5" spans="1:21" ht="168" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
@@ -4488,26 +4488,26 @@
     </row>
     <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="55"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="57"/>
@@ -5131,21 +5131,21 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -5154,73 +5154,73 @@
       <c r="U51" s="11"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A53" s="76"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="55"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="74"/>
-      <c r="T54" s="74"/>
-      <c r="U54" s="74"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="57"/>
@@ -5867,21 +5867,21 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="74"/>
-      <c r="L83" s="74"/>
-      <c r="M83" s="74"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="74"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
@@ -5890,73 +5890,73 @@
       <c r="U83" s="11"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A84" s="75"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="74"/>
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A85" s="76"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="76"/>
-      <c r="R85" s="76"/>
-      <c r="S85" s="76"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="55"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
       <c r="E86" s="56"/>
       <c r="F86" s="56"/>
       <c r="G86" s="56"/>
       <c r="H86" s="56"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
-      <c r="M86" s="77"/>
-      <c r="N86" s="77"/>
-      <c r="O86" s="74"/>
-      <c r="P86" s="74"/>
-      <c r="Q86" s="74"/>
-      <c r="R86" s="74"/>
-      <c r="S86" s="74"/>
-      <c r="T86" s="74"/>
-      <c r="U86" s="74"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="72"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="72"/>
+      <c r="S86" s="72"/>
+      <c r="T86" s="72"/>
+      <c r="U86" s="72"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="57"/>
@@ -6603,21 +6603,21 @@
       <c r="U114" s="9"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A115" s="74"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="74"/>
-      <c r="K115" s="74"/>
-      <c r="L115" s="74"/>
-      <c r="M115" s="74"/>
-      <c r="N115" s="74"/>
-      <c r="O115" s="74"/>
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="72"/>
+      <c r="O115" s="72"/>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
@@ -6626,73 +6626,73 @@
       <c r="U115" s="11"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A116" s="75"/>
-      <c r="B116" s="75"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="75"/>
-      <c r="I116" s="75"/>
-      <c r="J116" s="75"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="75"/>
-      <c r="R116" s="75"/>
+      <c r="A116" s="74"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="74"/>
+      <c r="R116" s="74"/>
       <c r="S116" s="11"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A117" s="76"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="76"/>
-      <c r="N117" s="76"/>
-      <c r="O117" s="76"/>
-      <c r="P117" s="76"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="76"/>
-      <c r="S117" s="76"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="75"/>
+      <c r="C117" s="75"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
+      <c r="O117" s="75"/>
+      <c r="P117" s="75"/>
+      <c r="Q117" s="75"/>
+      <c r="R117" s="75"/>
+      <c r="S117" s="75"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="55"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
       <c r="E118" s="56"/>
       <c r="F118" s="56"/>
       <c r="G118" s="56"/>
       <c r="H118" s="56"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="74"/>
-      <c r="P118" s="74"/>
-      <c r="Q118" s="74"/>
-      <c r="R118" s="74"/>
-      <c r="S118" s="74"/>
-      <c r="T118" s="74"/>
-      <c r="U118" s="74"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="73"/>
+      <c r="K118" s="73"/>
+      <c r="L118" s="73"/>
+      <c r="M118" s="73"/>
+      <c r="N118" s="73"/>
+      <c r="O118" s="72"/>
+      <c r="P118" s="72"/>
+      <c r="Q118" s="72"/>
+      <c r="R118" s="72"/>
+      <c r="S118" s="72"/>
+      <c r="T118" s="72"/>
+      <c r="U118" s="72"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="57"/>
@@ -7339,21 +7339,21 @@
       <c r="U146" s="9"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A147" s="74"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="74"/>
-      <c r="K147" s="74"/>
-      <c r="L147" s="74"/>
-      <c r="M147" s="74"/>
-      <c r="N147" s="74"/>
-      <c r="O147" s="74"/>
+      <c r="A147" s="72"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="72"/>
+      <c r="N147" s="72"/>
+      <c r="O147" s="72"/>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="11"/>
@@ -7362,73 +7362,73 @@
       <c r="U147" s="11"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A148" s="75"/>
-      <c r="B148" s="75"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="75"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="75"/>
-      <c r="G148" s="75"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="75"/>
-      <c r="J148" s="75"/>
-      <c r="K148" s="75"/>
-      <c r="L148" s="75"/>
-      <c r="M148" s="75"/>
-      <c r="N148" s="75"/>
-      <c r="O148" s="75"/>
-      <c r="P148" s="75"/>
-      <c r="Q148" s="75"/>
-      <c r="R148" s="75"/>
+      <c r="A148" s="74"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="74"/>
+      <c r="G148" s="74"/>
+      <c r="H148" s="74"/>
+      <c r="I148" s="74"/>
+      <c r="J148" s="74"/>
+      <c r="K148" s="74"/>
+      <c r="L148" s="74"/>
+      <c r="M148" s="74"/>
+      <c r="N148" s="74"/>
+      <c r="O148" s="74"/>
+      <c r="P148" s="74"/>
+      <c r="Q148" s="74"/>
+      <c r="R148" s="74"/>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A149" s="76"/>
-      <c r="B149" s="76"/>
-      <c r="C149" s="76"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="76"/>
-      <c r="G149" s="76"/>
-      <c r="H149" s="76"/>
-      <c r="I149" s="76"/>
-      <c r="J149" s="76"/>
-      <c r="K149" s="76"/>
-      <c r="L149" s="76"/>
-      <c r="M149" s="76"/>
-      <c r="N149" s="76"/>
-      <c r="O149" s="76"/>
-      <c r="P149" s="76"/>
-      <c r="Q149" s="76"/>
-      <c r="R149" s="76"/>
-      <c r="S149" s="76"/>
+      <c r="A149" s="75"/>
+      <c r="B149" s="75"/>
+      <c r="C149" s="75"/>
+      <c r="D149" s="75"/>
+      <c r="E149" s="75"/>
+      <c r="F149" s="75"/>
+      <c r="G149" s="75"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="75"/>
+      <c r="L149" s="75"/>
+      <c r="M149" s="75"/>
+      <c r="N149" s="75"/>
+      <c r="O149" s="75"/>
+      <c r="P149" s="75"/>
+      <c r="Q149" s="75"/>
+      <c r="R149" s="75"/>
+      <c r="S149" s="75"/>
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="55"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="73"/>
       <c r="E150" s="56"/>
       <c r="F150" s="56"/>
       <c r="G150" s="56"/>
       <c r="H150" s="56"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="77"/>
-      <c r="M150" s="77"/>
-      <c r="N150" s="77"/>
-      <c r="O150" s="74"/>
-      <c r="P150" s="74"/>
-      <c r="Q150" s="74"/>
-      <c r="R150" s="74"/>
-      <c r="S150" s="74"/>
-      <c r="T150" s="74"/>
-      <c r="U150" s="74"/>
+      <c r="I150" s="73"/>
+      <c r="J150" s="73"/>
+      <c r="K150" s="73"/>
+      <c r="L150" s="73"/>
+      <c r="M150" s="73"/>
+      <c r="N150" s="73"/>
+      <c r="O150" s="72"/>
+      <c r="P150" s="72"/>
+      <c r="Q150" s="72"/>
+      <c r="R150" s="72"/>
+      <c r="S150" s="72"/>
+      <c r="T150" s="72"/>
+      <c r="U150" s="72"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="57"/>
@@ -8075,21 +8075,21 @@
       <c r="U178" s="9"/>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A179" s="74"/>
-      <c r="B179" s="74"/>
-      <c r="C179" s="74"/>
-      <c r="D179" s="74"/>
-      <c r="E179" s="74"/>
-      <c r="F179" s="74"/>
-      <c r="G179" s="74"/>
-      <c r="H179" s="74"/>
-      <c r="I179" s="74"/>
-      <c r="J179" s="74"/>
-      <c r="K179" s="74"/>
-      <c r="L179" s="74"/>
-      <c r="M179" s="74"/>
-      <c r="N179" s="74"/>
-      <c r="O179" s="74"/>
+      <c r="A179" s="72"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="72"/>
+      <c r="D179" s="72"/>
+      <c r="E179" s="72"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="72"/>
+      <c r="H179" s="72"/>
+      <c r="I179" s="72"/>
+      <c r="J179" s="72"/>
+      <c r="K179" s="72"/>
+      <c r="L179" s="72"/>
+      <c r="M179" s="72"/>
+      <c r="N179" s="72"/>
+      <c r="O179" s="72"/>
       <c r="P179" s="11"/>
       <c r="Q179" s="11"/>
       <c r="R179" s="11"/>
@@ -8098,73 +8098,73 @@
       <c r="U179" s="11"/>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A180" s="75"/>
-      <c r="B180" s="75"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="75"/>
-      <c r="E180" s="75"/>
-      <c r="F180" s="75"/>
-      <c r="G180" s="75"/>
-      <c r="H180" s="75"/>
-      <c r="I180" s="75"/>
-      <c r="J180" s="75"/>
-      <c r="K180" s="75"/>
-      <c r="L180" s="75"/>
-      <c r="M180" s="75"/>
-      <c r="N180" s="75"/>
-      <c r="O180" s="75"/>
-      <c r="P180" s="75"/>
-      <c r="Q180" s="75"/>
-      <c r="R180" s="75"/>
+      <c r="A180" s="74"/>
+      <c r="B180" s="74"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="74"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="74"/>
+      <c r="K180" s="74"/>
+      <c r="L180" s="74"/>
+      <c r="M180" s="74"/>
+      <c r="N180" s="74"/>
+      <c r="O180" s="74"/>
+      <c r="P180" s="74"/>
+      <c r="Q180" s="74"/>
+      <c r="R180" s="74"/>
       <c r="S180" s="11"/>
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A181" s="76"/>
-      <c r="B181" s="76"/>
-      <c r="C181" s="76"/>
-      <c r="D181" s="76"/>
-      <c r="E181" s="76"/>
-      <c r="F181" s="76"/>
-      <c r="G181" s="76"/>
-      <c r="H181" s="76"/>
-      <c r="I181" s="76"/>
-      <c r="J181" s="76"/>
-      <c r="K181" s="76"/>
-      <c r="L181" s="76"/>
-      <c r="M181" s="76"/>
-      <c r="N181" s="76"/>
-      <c r="O181" s="76"/>
-      <c r="P181" s="76"/>
-      <c r="Q181" s="76"/>
-      <c r="R181" s="76"/>
-      <c r="S181" s="76"/>
+      <c r="A181" s="75"/>
+      <c r="B181" s="75"/>
+      <c r="C181" s="75"/>
+      <c r="D181" s="75"/>
+      <c r="E181" s="75"/>
+      <c r="F181" s="75"/>
+      <c r="G181" s="75"/>
+      <c r="H181" s="75"/>
+      <c r="I181" s="75"/>
+      <c r="J181" s="75"/>
+      <c r="K181" s="75"/>
+      <c r="L181" s="75"/>
+      <c r="M181" s="75"/>
+      <c r="N181" s="75"/>
+      <c r="O181" s="75"/>
+      <c r="P181" s="75"/>
+      <c r="Q181" s="75"/>
+      <c r="R181" s="75"/>
+      <c r="S181" s="75"/>
       <c r="T181" s="11"/>
       <c r="U181" s="11"/>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="55"/>
-      <c r="B182" s="77"/>
-      <c r="C182" s="77"/>
-      <c r="D182" s="77"/>
+      <c r="B182" s="73"/>
+      <c r="C182" s="73"/>
+      <c r="D182" s="73"/>
       <c r="E182" s="56"/>
       <c r="F182" s="56"/>
       <c r="G182" s="56"/>
       <c r="H182" s="56"/>
-      <c r="I182" s="77"/>
-      <c r="J182" s="77"/>
-      <c r="K182" s="77"/>
-      <c r="L182" s="77"/>
-      <c r="M182" s="77"/>
-      <c r="N182" s="77"/>
-      <c r="O182" s="74"/>
-      <c r="P182" s="74"/>
-      <c r="Q182" s="74"/>
-      <c r="R182" s="74"/>
-      <c r="S182" s="74"/>
-      <c r="T182" s="74"/>
-      <c r="U182" s="74"/>
+      <c r="I182" s="73"/>
+      <c r="J182" s="73"/>
+      <c r="K182" s="73"/>
+      <c r="L182" s="73"/>
+      <c r="M182" s="73"/>
+      <c r="N182" s="73"/>
+      <c r="O182" s="72"/>
+      <c r="P182" s="72"/>
+      <c r="Q182" s="72"/>
+      <c r="R182" s="72"/>
+      <c r="S182" s="72"/>
+      <c r="T182" s="72"/>
+      <c r="U182" s="72"/>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="57"/>
@@ -8811,21 +8811,21 @@
       <c r="U210" s="9"/>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A211" s="74"/>
-      <c r="B211" s="74"/>
-      <c r="C211" s="74"/>
-      <c r="D211" s="74"/>
-      <c r="E211" s="74"/>
-      <c r="F211" s="74"/>
-      <c r="G211" s="74"/>
-      <c r="H211" s="74"/>
-      <c r="I211" s="74"/>
-      <c r="J211" s="74"/>
-      <c r="K211" s="74"/>
-      <c r="L211" s="74"/>
-      <c r="M211" s="74"/>
-      <c r="N211" s="74"/>
-      <c r="O211" s="74"/>
+      <c r="A211" s="72"/>
+      <c r="B211" s="72"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="72"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="72"/>
+      <c r="N211" s="72"/>
+      <c r="O211" s="72"/>
       <c r="P211" s="11"/>
       <c r="Q211" s="11"/>
       <c r="R211" s="11"/>
@@ -8834,73 +8834,73 @@
       <c r="U211" s="11"/>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A212" s="75"/>
-      <c r="B212" s="75"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="75"/>
-      <c r="E212" s="75"/>
-      <c r="F212" s="75"/>
-      <c r="G212" s="75"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="75"/>
-      <c r="J212" s="75"/>
-      <c r="K212" s="75"/>
-      <c r="L212" s="75"/>
-      <c r="M212" s="75"/>
-      <c r="N212" s="75"/>
-      <c r="O212" s="75"/>
-      <c r="P212" s="75"/>
-      <c r="Q212" s="75"/>
-      <c r="R212" s="75"/>
+      <c r="A212" s="74"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="74"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
+      <c r="F212" s="74"/>
+      <c r="G212" s="74"/>
+      <c r="H212" s="74"/>
+      <c r="I212" s="74"/>
+      <c r="J212" s="74"/>
+      <c r="K212" s="74"/>
+      <c r="L212" s="74"/>
+      <c r="M212" s="74"/>
+      <c r="N212" s="74"/>
+      <c r="O212" s="74"/>
+      <c r="P212" s="74"/>
+      <c r="Q212" s="74"/>
+      <c r="R212" s="74"/>
       <c r="S212" s="11"/>
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A213" s="76"/>
-      <c r="B213" s="76"/>
-      <c r="C213" s="76"/>
-      <c r="D213" s="76"/>
-      <c r="E213" s="76"/>
-      <c r="F213" s="76"/>
-      <c r="G213" s="76"/>
-      <c r="H213" s="76"/>
-      <c r="I213" s="76"/>
-      <c r="J213" s="76"/>
-      <c r="K213" s="76"/>
-      <c r="L213" s="76"/>
-      <c r="M213" s="76"/>
-      <c r="N213" s="76"/>
-      <c r="O213" s="76"/>
-      <c r="P213" s="76"/>
-      <c r="Q213" s="76"/>
-      <c r="R213" s="76"/>
-      <c r="S213" s="76"/>
+      <c r="A213" s="75"/>
+      <c r="B213" s="75"/>
+      <c r="C213" s="75"/>
+      <c r="D213" s="75"/>
+      <c r="E213" s="75"/>
+      <c r="F213" s="75"/>
+      <c r="G213" s="75"/>
+      <c r="H213" s="75"/>
+      <c r="I213" s="75"/>
+      <c r="J213" s="75"/>
+      <c r="K213" s="75"/>
+      <c r="L213" s="75"/>
+      <c r="M213" s="75"/>
+      <c r="N213" s="75"/>
+      <c r="O213" s="75"/>
+      <c r="P213" s="75"/>
+      <c r="Q213" s="75"/>
+      <c r="R213" s="75"/>
+      <c r="S213" s="75"/>
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" s="55"/>
-      <c r="B214" s="77"/>
-      <c r="C214" s="77"/>
-      <c r="D214" s="77"/>
+      <c r="B214" s="73"/>
+      <c r="C214" s="73"/>
+      <c r="D214" s="73"/>
       <c r="E214" s="56"/>
       <c r="F214" s="56"/>
       <c r="G214" s="56"/>
       <c r="H214" s="56"/>
-      <c r="I214" s="77"/>
-      <c r="J214" s="77"/>
-      <c r="K214" s="77"/>
-      <c r="L214" s="77"/>
-      <c r="M214" s="77"/>
-      <c r="N214" s="77"/>
-      <c r="O214" s="74"/>
-      <c r="P214" s="74"/>
-      <c r="Q214" s="74"/>
-      <c r="R214" s="74"/>
-      <c r="S214" s="74"/>
-      <c r="T214" s="74"/>
-      <c r="U214" s="74"/>
+      <c r="I214" s="73"/>
+      <c r="J214" s="73"/>
+      <c r="K214" s="73"/>
+      <c r="L214" s="73"/>
+      <c r="M214" s="73"/>
+      <c r="N214" s="73"/>
+      <c r="O214" s="72"/>
+      <c r="P214" s="72"/>
+      <c r="Q214" s="72"/>
+      <c r="R214" s="72"/>
+      <c r="S214" s="72"/>
+      <c r="T214" s="72"/>
+      <c r="U214" s="72"/>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" s="57"/>
@@ -9438,23 +9438,27 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="S118:U118"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:R52"/>
-    <mergeCell ref="A53:S53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="I54:N54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="A22:U22"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A211:O211"/>
+    <mergeCell ref="A212:R212"/>
+    <mergeCell ref="A179:O179"/>
+    <mergeCell ref="A180:R180"/>
+    <mergeCell ref="A181:S181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="I182:N182"/>
+    <mergeCell ref="O182:R182"/>
+    <mergeCell ref="S182:U182"/>
+    <mergeCell ref="A147:O147"/>
+    <mergeCell ref="A148:R148"/>
+    <mergeCell ref="A149:S149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="A213:S213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="I214:N214"/>
+    <mergeCell ref="O214:R214"/>
+    <mergeCell ref="S214:U214"/>
     <mergeCell ref="I150:N150"/>
     <mergeCell ref="O150:R150"/>
     <mergeCell ref="S150:U150"/>
@@ -9471,27 +9475,23 @@
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="I118:N118"/>
     <mergeCell ref="O118:R118"/>
-    <mergeCell ref="A213:S213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="I214:N214"/>
-    <mergeCell ref="O214:R214"/>
-    <mergeCell ref="S214:U214"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A211:O211"/>
-    <mergeCell ref="A212:R212"/>
-    <mergeCell ref="A179:O179"/>
-    <mergeCell ref="A180:R180"/>
-    <mergeCell ref="A181:S181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="I182:N182"/>
-    <mergeCell ref="O182:R182"/>
-    <mergeCell ref="S182:U182"/>
-    <mergeCell ref="A147:O147"/>
-    <mergeCell ref="A148:R148"/>
-    <mergeCell ref="A149:S149"/>
-    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="A22:U22"/>
+    <mergeCell ref="S118:U118"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:R52"/>
+    <mergeCell ref="A53:S53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="S54:U54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="11" orientation="landscape" r:id="rId1"/>
